--- a/topmeperp_v1/UploadFile/budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/budget_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topmep_Web\topmeperp_v1\topmeperp_v1_master\topmeperp_v1\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>專案編號 :</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>預算填寫表格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主九宮格編碼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>折扣率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>預算折扣率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,8 +66,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工資</t>
+    <t>主系統</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次系統</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發包預算管制表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,12 +236,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -252,6 +250,9 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,35 +573,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -616,365 +617,368 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H5" s="8">
-        <f>(D5*E5+F5)*G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H6" s="8">
-        <f t="shared" ref="H6:H59" si="0">(D6*E6+F6)*G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H43" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H46" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H47" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H48" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H49" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H50" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H51" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H52" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H53" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H54" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H55" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H56" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H57" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H58" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H59" s="8">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="6">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I59" si="0">G6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topmeperp_v1/UploadFile/budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/budget_form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="預算" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>分項名稱(成本價)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料報價</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>預算折扣率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +72,14 @@
   <si>
     <t>發包預算管制表</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分項名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始報價</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,22 +576,22 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -601,7 +601,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -625,352 +625,352 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I5" s="6">
         <f>G5*H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I6" s="6">
         <f t="shared" ref="I6:I59" si="0">G6*H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I58" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/topmeperp_v1/UploadFile/budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/budget_form.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/topmeperp_v1/UploadFile/budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/budget_form.xlsx
@@ -54,18 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>預算金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主系統</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>次系統</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合約金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,8 +66,20 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>原始報價</t>
+    <t>材料成本</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工資成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工資預算折扣率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算總金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,14 +139,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -230,32 +222,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -573,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -586,23 +578,23 @@
     <col min="5" max="6" width="21.81640625" customWidth="1"/>
     <col min="7" max="7" width="20.6328125" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="21.08984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -616,364 +608,37 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="G3">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I5" s="6">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I6" s="6">
-        <f t="shared" ref="I6:I59" si="0">G6*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I41" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I42" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I44" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I45" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I46" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I47" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I48" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I49" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I50" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I52" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I53" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I54" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I55" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I56" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I57" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I58" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I59" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/topmeperp_v1/UploadFile/budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/budget_form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topmep_Web\topmeperp_v1\topmeperp_v1_master\topmeperp_v1\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>預算折扣率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合約金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -74,11 +70,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工資預算折扣率</t>
+    <t>預算總金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>預算總金額</t>
+    <t>材料折扣率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工資折扣率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,14 +240,14 @@
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -568,32 +568,32 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -620,25 +620,25 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/topmeperp_v1/UploadFile/budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/budget_form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>專案編號 :</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>工資折扣率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料預算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工資預算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,35 +576,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,18 +618,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,19 +648,25 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
